--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve">Eventment a ajouter a la page recherche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 31/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de une vignette component , implementation dans recherche contiainer</t>
   </si>
   <si>
     <t xml:space="preserve">DATE : </t>
@@ -420,8 +426,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -962,12 +968,17 @@
       <c r="H73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I73" s="17"/>
+      <c r="I73" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J73" s="19"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="J74" s="8"/>
     </row>
@@ -1017,7 +1028,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -1084,7 +1095,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -1151,7 +1162,7 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -1218,7 +1229,7 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -1285,7 +1296,7 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -1352,7 +1363,7 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -1419,7 +1430,7 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve">DATE : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">travaille sur la vignette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manque du temps en classe , je essaie de expliquer aux colegues comment react functione , ca predns pas mal de temps </t>
   </si>
 </sst>
 </file>
@@ -426,8 +432,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1040,13 +1046,18 @@
       <c r="H83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I83" s="17"/>
+      <c r="I83" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J83" s="19"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="20" t="s">
         <v>4</v>
       </c>
+      <c r="C84" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="J84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,7 +1072,9 @@
       <c r="B87" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="11"/>
+      <c r="C87" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -88,13 +88,28 @@
     <t xml:space="preserve">Creation de une vignette component , implementation dans recherche contiainer</t>
   </si>
   <si>
+    <t xml:space="preserve">DATE : 03/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travaille sur la vignette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manque du temps en classe , je essaie de expliquer aux colegues comment react functione , ca predns pas mal de temps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 04/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travaille sur la requette json et reestructuration de pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE :05/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travaille sur les evenement dans recherche container </t>
+  </si>
+  <si>
     <t xml:space="preserve">DATE : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">travaille sur la vignette </t>
-  </si>
-  <si>
-    <t xml:space="preserve">manque du temps en classe , je essaie de expliquer aux colegues comment react functione , ca predns pas mal de temps </t>
   </si>
 </sst>
 </file>
@@ -432,8 +447,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1108,7 +1123,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -1120,12 +1135,17 @@
       <c r="H93" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I93" s="17"/>
+      <c r="I93" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J93" s="19"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="J94" s="8"/>
     </row>
@@ -1175,7 +1195,7 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -1187,12 +1207,17 @@
       <c r="H103" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I103" s="17"/>
+      <c r="I103" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J103" s="19"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="J104" s="8"/>
     </row>
@@ -1242,7 +1267,7 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -1309,7 +1334,7 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -1376,7 +1401,7 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -1443,7 +1468,7 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -107,6 +107,24 @@
   </si>
   <si>
     <t xml:space="preserve">travaille sur les evenement dans recherche container </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 06/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventments fini props a travailles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 07/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bugs a regler recherce de info sur le props </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 10/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajout des props et pasage de infos de une classe a une autre</t>
   </si>
   <si>
     <t xml:space="preserve">DATE : </t>
@@ -447,8 +465,8 @@
   </sheetPr>
   <dimension ref="B3:J151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C134" activeCellId="0" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1279,12 +1297,17 @@
       <c r="H113" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I113" s="17"/>
+      <c r="I113" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J113" s="19"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="J114" s="8"/>
     </row>
@@ -1334,7 +1357,7 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -1346,12 +1369,17 @@
       <c r="H123" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I123" s="17"/>
+      <c r="I123" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J123" s="19"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="J124" s="8"/>
     </row>
@@ -1401,7 +1429,7 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -1413,12 +1441,17 @@
       <c r="H133" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I133" s="17"/>
+      <c r="I133" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J133" s="19"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="J134" s="8"/>
     </row>
@@ -1468,7 +1501,7 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -127,7 +127,10 @@
     <t xml:space="preserve">ajout des props et pasage de infos de une classe a une autre</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE : </t>
+    <t xml:space="preserve">DATE : 11/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finalisation de css pour la page recherche </t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="B3:J151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C134" activeCellId="0" sqref="C134"/>
+      <selection pane="topLeft" activeCell="C144" activeCellId="0" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1513,12 +1516,17 @@
       <c r="H143" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I143" s="17"/>
+      <c r="I143" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="J143" s="19"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="J144" s="8"/>
     </row>

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -127,10 +127,19 @@
     <t xml:space="preserve">ajout des props et pasage de infos de une classe a une autre</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE : 11/07/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finalisation de css pour la page recherche </t>
+    <t xml:space="preserve">DATE : 12/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page recherche travail sur la reponse et le affichage de donnes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -466,10 +475,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:J151"/>
+  <dimension ref="B3:J183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C144" activeCellId="0" sqref="C144"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L169" activeCellId="0" sqref="L169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1573,6 +1582,216 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="15"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I153" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J153" s="19"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J154" s="8"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="9"/>
+      <c r="J155" s="8"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="9"/>
+      <c r="J156" s="8"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="22"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="9"/>
+      <c r="J158" s="8"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="9"/>
+      <c r="J159" s="8"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="9"/>
+      <c r="J160" s="8"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="13"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="14"/>
+      <c r="J161" s="15"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I164" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J164" s="19"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J165" s="8"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="9"/>
+      <c r="J166" s="8"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="9"/>
+      <c r="J167" s="8"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="22"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="9"/>
+      <c r="J169" s="8"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="9"/>
+      <c r="J170" s="8"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="9"/>
+      <c r="J171" s="8"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="13"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14"/>
+      <c r="J172" s="15"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I175" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J175" s="19"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J176" s="8"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="9"/>
+      <c r="J177" s="8"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="9"/>
+      <c r="J178" s="8"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="22"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="9"/>
+      <c r="J180" s="8"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="9"/>
+      <c r="J181" s="8"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="9"/>
+      <c r="J182" s="8"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="13"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -133,7 +133,10 @@
     <t xml:space="preserve">page recherche travail sur la reponse et le affichage de donnes </t>
   </si>
   <si>
-    <t xml:space="preserve">DATE :</t>
+    <t xml:space="preserve">DATE :13/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ajoutdes donnes a la reponse debut de travail sur la page profil sitter (normalment)</t>
   </si>
   <si>
     <t xml:space="preserve">DATE : </t>
@@ -477,8 +480,8 @@
   </sheetPr>
   <dimension ref="B3:J183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L169" activeCellId="0" sqref="L169"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C154" activeCellId="0" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1606,6 +1609,9 @@
       <c r="B154" s="20" t="s">
         <v>4</v>
       </c>
+      <c r="C154" s="0" t="s">
+        <v>38</v>
+      </c>
       <c r="J154" s="8"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,7 +1660,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
@@ -1676,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J165" s="8"/>
     </row>
@@ -1726,7 +1732,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -139,10 +139,13 @@
     <t xml:space="preserve"> Ajoutdes donnes a la reponse debut de travail sur la page profil sitter (normalment)</t>
   </si>
   <si>
+    <t xml:space="preserve">DATE : 14/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finision de profil demande pett sitter , creation de  site web container </t>
+  </si>
+  <si>
     <t xml:space="preserve">DATE : </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -480,8 +483,8 @@
   </sheetPr>
   <dimension ref="B3:J183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C154" activeCellId="0" sqref="C154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A146" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C165" activeCellId="0" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1732,7 +1735,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -145,7 +145,10 @@
     <t xml:space="preserve">Finision de profil demande pett sitter , creation de  site web container </t>
   </si>
   <si>
-    <t xml:space="preserve">DATE : </t>
+    <t xml:space="preserve">DATE : 17/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demande profil a finir travaille sur la partie contrat au meme temps ( dans la meme page)</t>
   </si>
 </sst>
 </file>
@@ -483,8 +486,8 @@
   </sheetPr>
   <dimension ref="B3:J183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A146" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C165" activeCellId="0" sqref="C165"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A161" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C176" activeCellId="0" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1755,6 +1758,9 @@
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="20" t="s">
         <v>4</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="J176" s="8"/>
     </row>

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t xml:space="preserve">demande profil a finir travaille sur la partie contrat au meme temps ( dans la meme page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 18/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conexion entre recherche sitter et profil demande sitter </t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:J183"/>
+  <dimension ref="B3:J193"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A161" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C176" activeCellId="0" sqref="C176"/>
+      <selection pane="topLeft" activeCell="C186" activeCellId="0" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1807,6 +1813,78 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
       <c r="J183" s="15"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I185" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J185" s="19"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J186" s="8"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="9"/>
+      <c r="J187" s="8"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="9"/>
+      <c r="J188" s="8"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="22"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="9"/>
+      <c r="J190" s="8"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="9"/>
+      <c r="J191" s="8"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="9"/>
+      <c r="J192" s="8"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="13"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="14"/>
+      <c r="J193" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t xml:space="preserve">conexion entre recherche sitter et profil demande sitter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 19/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conexion entre recherche sitter et profil demande sitter a finir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detailles dans la api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 20/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conexion entre recherche sitter et profil demande sitter fini detailles a voir , navigation entre les pages </t>
   </si>
 </sst>
 </file>
@@ -490,10 +505,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:J193"/>
+  <dimension ref="B3:J213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A161" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C186" activeCellId="0" sqref="C186"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A188" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C206" activeCellId="0" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1885,6 +1900,152 @@
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
       <c r="J193" s="15"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195" s="17"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I195" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J195" s="19"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J196" s="8"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="9"/>
+      <c r="J197" s="8"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="9"/>
+      <c r="J198" s="8"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="22"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="9"/>
+      <c r="J200" s="8"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="9"/>
+      <c r="J201" s="8"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="9"/>
+      <c r="J202" s="8"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="13"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="14"/>
+      <c r="J203" s="15"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C205" s="17"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F205" s="17"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I205" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J205" s="19"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J206" s="8"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="9"/>
+      <c r="J207" s="8"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="9"/>
+      <c r="J208" s="8"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="22"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="9"/>
+      <c r="J210" s="8"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="9"/>
+      <c r="J211" s="8"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="9"/>
+      <c r="J212" s="8"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="13"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="14"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="14"/>
+      <c r="J213" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t xml:space="preserve">conexion entre recherche sitter et profil demande sitter fini detailles a voir , navigation entre les pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 21/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creation de contrat conexion a la api pour la creation de contrat </t>
   </si>
 </sst>
 </file>
@@ -505,10 +511,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:J213"/>
+  <dimension ref="B3:J223"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A188" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C206" activeCellId="0" sqref="C206"/>
+      <selection pane="topLeft" activeCell="C216" activeCellId="0" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2046,6 +2052,78 @@
       <c r="H213" s="14"/>
       <c r="I213" s="14"/>
       <c r="J213" s="15"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C215" s="17"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I215" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J215" s="19"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J216" s="8"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="9"/>
+      <c r="J217" s="8"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="9"/>
+      <c r="J218" s="8"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="22"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="9"/>
+      <c r="J220" s="8"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="9"/>
+      <c r="J221" s="8"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="9"/>
+      <c r="J222" s="8"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="13"/>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="14"/>
+      <c r="H223" s="14"/>
+      <c r="I223" s="14"/>
+      <c r="J223" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/rapport journalier/Rapport journalier - Richard (2).xlsx
+++ b/rapport journalier/Rapport journalier - Richard (2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="54">
   <si>
     <t xml:space="preserve">DATE : 22/7/2020</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t xml:space="preserve">creation de contrat conexion a la api pour la creation de contrat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE : 24/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creation de page paiment </t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:J223"/>
+  <dimension ref="B3:J233"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A188" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C216" activeCellId="0" sqref="C216"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A200" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C226" activeCellId="0" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2124,6 +2130,78 @@
       <c r="H223" s="14"/>
       <c r="I223" s="14"/>
       <c r="J223" s="15"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C225" s="17"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F225" s="17"/>
+      <c r="G225" s="17"/>
+      <c r="H225" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I225" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J225" s="19"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J226" s="8"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="9"/>
+      <c r="J227" s="8"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="9"/>
+      <c r="J228" s="8"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="22"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="9"/>
+      <c r="J230" s="8"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="9"/>
+      <c r="J231" s="8"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="9"/>
+      <c r="J232" s="8"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="13"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="14"/>
+      <c r="J233" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
